--- a/DEMO.xlsx
+++ b/DEMO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PoomipatMakorwattana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PoomipatMakorwattana\Desktop\Work\ODOS\StudentConfidential_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A799A09F-2AD9-4BD0-9143-4E778FFB0FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FE583-AE12-4FF0-A6A5-C1C1195E8709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F0498DA4-7443-4F1F-86B6-E1DA2DCB36E5}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" xr2:uid="{F0498DA4-7443-4F1F-86B6-E1DA2DCB36E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t>pass</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>S12345678901</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -529,15 +532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A060953B-603B-4F10-846E-C57D3589581F}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -589,8 +592,11 @@
       <c r="Q1" t="s">
         <v>17</v>
       </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -650,8 +656,11 @@
       <c r="Q2" t="s">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -711,8 +720,11 @@
       <c r="Q3" t="s">
         <v>0</v>
       </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -772,8 +784,11 @@
       <c r="Q4" t="s">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -833,8 +848,11 @@
       <c r="Q5" t="s">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -894,8 +912,11 @@
       <c r="Q6" t="s">
         <v>0</v>
       </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -955,8 +976,11 @@
       <c r="Q7" t="s">
         <v>0</v>
       </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1016,8 +1040,11 @@
       <c r="Q8" t="s">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1077,8 +1104,11 @@
       <c r="Q9" t="s">
         <v>0</v>
       </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1168,11 @@
       <c r="Q10" t="s">
         <v>0</v>
       </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1199,8 +1232,11 @@
       <c r="Q11" t="s">
         <v>0</v>
       </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1260,8 +1296,11 @@
       <c r="Q12" t="s">
         <v>0</v>
       </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1320,6 +1359,9 @@
       </c>
       <c r="Q13" t="s">
         <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
